--- a/games.xlsx
+++ b/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Stats/Games/theaplotalypse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{93F63AE2-5597-4EE0-BE92-7B45216CC4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0CFCDA-2A27-4B67-9BD3-4CCB18A0FC2D}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{93F63AE2-5597-4EE0-BE92-7B45216CC4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0600821-3DDA-4AA6-97B0-050565B41CAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
   <si>
     <t>K-Blue</t>
   </si>
@@ -262,6 +262,45 @@
   </si>
   <si>
     <t>Infection rate</t>
+  </si>
+  <si>
+    <t>K-Green cards</t>
+  </si>
+  <si>
+    <t>E-Yellow cards</t>
+  </si>
+  <si>
+    <t>E-Green cards</t>
+  </si>
+  <si>
+    <t>E-Blue cards</t>
+  </si>
+  <si>
+    <t>K-Yellow cards</t>
+  </si>
+  <si>
+    <t>K-Blue cards</t>
+  </si>
+  <si>
+    <t>E-reserve</t>
+  </si>
+  <si>
+    <t>K-reserve</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Epidemics</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1145,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2932,7 +2971,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4359,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA111390-EE6C-425E-9F5D-D6CB7EC6016D}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4371,7 +4410,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4408,8 +4447,11 @@
       <c r="L1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -4443,7 +4485,51 @@
       <c r="K2">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
     </row>
@@ -8025,15 +8111,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8AD0A9-2237-487B-8A07-08A28BA53786}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -8061,8 +8147,32 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>14</v>
       </c>
@@ -8089,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14</v>
       </c>
@@ -8116,7 +8226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13</v>
       </c>
@@ -8143,7 +8253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13</v>
       </c>
@@ -8170,7 +8280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8197,7 +8307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8224,7 +8334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>18</v>
       </c>
@@ -8251,7 +8361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8281,7 +8391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8311,7 +8421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8341,7 +8451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8371,7 +8481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -8401,7 +8511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8431,7 +8541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -8461,7 +8571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -8491,37 +8601,103 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
+        <v>Kathleen</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kathleen</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
         <v>Emily</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="str">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>Emily</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="str">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>Emily</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>Emily</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>Emily</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>Emily</v>
